--- a/assignments/A2/Book1.xlsx
+++ b/assignments/A2/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yangj\Desktop\Uppsala University\Parallel and Distributed Programming\PDP\assignments\A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{CB53A226-E7A6-49C8-A329-03AAC466EED7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0851E18-F92B-4B97-8645-1B555401F488}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A97F3F8-27A1-433E-B3A8-3CC6862F8BD4}"/>
   </bookViews>
@@ -243,16 +243,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2310499762107663</c:v>
+                  <c:v>1.4801469932022411</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9457967954595541</c:v>
+                  <c:v>2.3667257939580124</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2156071464752314</c:v>
+                  <c:v>3.525877922693101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2504051542226171</c:v>
+                  <c:v>5.013251857310455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -776,16 +776,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70243400939394207</c:v>
+                  <c:v>0.7148812673470859</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35011559142605631</c:v>
+                  <c:v>0.55036013177527976</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17138781662122882</c:v>
+                  <c:v>0.83223765776766057</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.772100944475054E-2</c:v>
+                  <c:v>0.26957374159902436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1173,407 +1173,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-836C-4FE6-A035-56596642244E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$I$2:$I$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4048680187878841</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4004623657042252</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3711025329698305</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5635361511160086</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-836C-4FE6-A035-56596642244E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="504419312"/>
-        <c:axId val="504421280"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="504419312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="504421280"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="504421280"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="504419312"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1654,46 +1253,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2726,536 +2285,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3282,16 +2325,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3311,42 +2354,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1C76B97-67CC-442F-BF7C-4952C9B5DA23}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3652,10 +2659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47CDAD4-5D0D-449D-BA0F-F16A9F64EDE0}">
-  <dimension ref="A2:I6"/>
+  <dimension ref="A2:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3665,31 +2672,30 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>21.454802999999998</v>
+        <v>91.882108000000002</v>
       </c>
       <c r="C2">
         <f>D2/B2</f>
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>21.454802999999998</v>
+        <v>91.882108000000002</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>21.454802999999998</v>
+        <v>21.366332</v>
       </c>
       <c r="G2">
-        <f>D2/F2</f>
+        <f>I2/F2</f>
         <v>1</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
       </c>
       <c r="I2">
-        <f>E2*G2</f>
-        <v>1</v>
+        <v>21.366332</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3697,31 +2703,30 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>17.428052000000001</v>
+        <v>62.076340000000002</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C6" si="0">D3/B3</f>
-        <v>1.2310499762107663</v>
+        <v>1.4801469932022411</v>
       </c>
       <c r="D3" s="1">
-        <v>21.454802999999998</v>
+        <v>91.882108000000002</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>30.543513999999998</v>
+        <v>29.887944999999998</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G6" si="1">D3/F3</f>
-        <v>0.70243400939394207</v>
+        <f t="shared" ref="G3:G6" si="1">I3/F3</f>
+        <v>0.7148812673470859</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I6" si="2">E3*G3</f>
-        <v>1.4048680187878841</v>
+        <v>21.366332</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3729,31 +2734,30 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>11.02623</v>
+        <v>38.822456000000003</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>1.9457967954595541</v>
+        <v>2.3667257939580124</v>
       </c>
       <c r="D4" s="1">
-        <v>21.454802999999998</v>
+        <v>91.882108000000002</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
       <c r="F4">
-        <v>61.279198999999998</v>
+        <v>38.822456000000003</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>0.35011559142605631</v>
+        <v>0.55036013177527976</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
       </c>
       <c r="I4">
-        <f t="shared" si="2"/>
-        <v>1.4004623657042252</v>
+        <v>21.366332</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3761,31 +2765,30 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>9.6834869999999995</v>
+        <v>26.059356000000001</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>2.2156071464752314</v>
+        <v>3.525877922693101</v>
       </c>
       <c r="D5" s="1">
-        <v>21.454802999999998</v>
+        <v>91.882108000000002</v>
       </c>
       <c r="E5">
         <v>8</v>
       </c>
       <c r="F5">
-        <v>125.182778</v>
+        <v>25.673354</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>0.17138781662122882</v>
+        <v>0.83223765776766057</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
-        <v>1.3711025329698305</v>
+        <v>21.366332</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3793,31 +2796,134 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>17.158280999999999</v>
+        <v>18.327846000000001</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>1.2504051542226171</v>
+        <v>5.013251857310455</v>
       </c>
       <c r="D6" s="1">
-        <v>21.454802999999998</v>
+        <v>91.882108000000002</v>
       </c>
       <c r="E6">
         <v>16</v>
       </c>
       <c r="F6">
-        <v>219.55159</v>
+        <v>79.259692999999999</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>9.772100944475054E-2</v>
+        <v>0.26957374159902436</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
       </c>
       <c r="I6">
+        <v>21.366332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>62.076340000000002</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:C12" si="2">D9/B9</f>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>62.076340000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>38.822456000000003</v>
+      </c>
+      <c r="C10">
         <f t="shared" si="2"/>
-        <v>1.5635361511160086</v>
+        <v>1.5989802396839601</v>
+      </c>
+      <c r="D10">
+        <v>62.076340000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>26.059356000000001</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>2.3821133569072082</v>
+      </c>
+      <c r="D11">
+        <v>62.076340000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>18.327846000000001</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>3.3869959404940437</v>
+      </c>
+      <c r="D12">
+        <v>62.076340000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>0.71488126734708601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0.55036013177527998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1.48014699320224</v>
+      </c>
+      <c r="B19">
+        <v>0.83223765776766101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2.3667257939580102</v>
+      </c>
+      <c r="B20">
+        <v>0.26957374159902397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3.5258779226931001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>5.0132518573104496</v>
       </c>
     </row>
   </sheetData>
